--- a/JoM/map.xlsx
+++ b/JoM/map.xlsx
@@ -107,7 +107,56 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -255,16 +304,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>37420</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>10203</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>10207</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>64633</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>89</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>51024</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>81644</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -273,8 +322,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11059206" y="2445882"/>
-          <a:ext cx="9429749" cy="9429749"/>
+          <a:off x="1071564" y="976312"/>
+          <a:ext cx="8643937" cy="8643937"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -311,6 +360,61 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1257300" y="7181850"/>
+          <a:ext cx="200025" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -582,7 +686,7 @@
   <dimension ref="B2:BA54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+      <selection activeCell="AF29" sqref="AF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -608,359 +712,359 @@
     </row>
     <row r="4" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P6" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
@@ -1005,111 +1109,111 @@
         <v>3</v>
       </c>
       <c r="AH6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O7" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P7" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
@@ -1166,96 +1270,96 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N8" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O8" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P8" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
@@ -1324,84 +1428,84 @@
         <v>0</v>
       </c>
       <c r="AM8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AP8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L9" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M9" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N9" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O9" s="1">
         <v>2</v>
@@ -1482,72 +1586,72 @@
         <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AP9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L10" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M10" s="1">
         <v>2</v>
@@ -1637,66 +1741,66 @@
         <v>2</v>
       </c>
       <c r="AP10" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ10" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR10" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AS10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L11" s="1">
         <v>2</v>
@@ -1792,60 +1896,60 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AT11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K12" s="1">
         <v>2</v>
@@ -1947,54 +2051,54 @@
         <v>2</v>
       </c>
       <c r="AR12" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS12" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AT12" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AU12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I13" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1">
         <v>2</v>
@@ -2102,48 +2206,48 @@
         <v>2</v>
       </c>
       <c r="AS13" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AT13" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AU13" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I14" s="1">
         <v>2</v>
@@ -2257,45 +2361,45 @@
         <v>2</v>
       </c>
       <c r="AT14" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AU14" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV14" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G15" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H15" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -2409,42 +2513,42 @@
         <v>2</v>
       </c>
       <c r="AT15" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AU15" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV15" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G16" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
@@ -2564,36 +2668,36 @@
         <v>0</v>
       </c>
       <c r="AU16" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV16" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW16" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:53" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G17" s="1">
         <v>2</v>
@@ -2719,33 +2823,33 @@
         <v>0</v>
       </c>
       <c r="AV17" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW17" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX17" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:53" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -2871,30 +2975,30 @@
         <v>0</v>
       </c>
       <c r="AV18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:53" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
@@ -3026,27 +3130,27 @@
         <v>3</v>
       </c>
       <c r="AW19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY19" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ19" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:53" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3178,27 +3282,27 @@
         <v>3</v>
       </c>
       <c r="AW20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:53" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -3333,21 +3437,21 @@
         <v>3</v>
       </c>
       <c r="AX21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:53" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -3485,21 +3589,21 @@
         <v>3</v>
       </c>
       <c r="AX22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY22" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:53" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -3637,21 +3741,21 @@
         <v>3</v>
       </c>
       <c r="AX23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY23" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ23" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:53" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C24" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -3792,18 +3896,18 @@
         <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ24" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:53" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C25" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -3944,18 +4048,18 @@
         <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ25" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:53" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C26" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -4096,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ26" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:53" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C27" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -4248,10 +4352,10 @@
         <v>0</v>
       </c>
       <c r="AY27" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ27" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:53" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -4259,10 +4363,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -4403,10 +4507,10 @@
         <v>0</v>
       </c>
       <c r="AY28" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ28" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA28" s="1" t="s">
         <v>1</v>
@@ -4417,10 +4521,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -4561,10 +4665,10 @@
         <v>0</v>
       </c>
       <c r="AY29" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ29" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA29" s="1" t="s">
         <v>1</v>
@@ -4572,10 +4676,10 @@
     </row>
     <row r="30" spans="2:53" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C30" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -4716,18 +4820,18 @@
         <v>3</v>
       </c>
       <c r="AY30" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ30" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:53" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C31" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -4868,18 +4972,18 @@
         <v>3</v>
       </c>
       <c r="AY31" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ31" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:53" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C32" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -5020,18 +5124,18 @@
         <v>3</v>
       </c>
       <c r="AY32" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ32" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="3:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C33" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -5172,18 +5276,18 @@
         <v>0</v>
       </c>
       <c r="AY33" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ33" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="3:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C34" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -5324,18 +5428,18 @@
         <v>0</v>
       </c>
       <c r="AY34" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ34" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="3:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -5476,21 +5580,21 @@
         <v>0</v>
       </c>
       <c r="AY35" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ35" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="3:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C36" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -5628,21 +5732,21 @@
         <v>0</v>
       </c>
       <c r="AY36" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ36" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="3:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C37" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -5777,24 +5881,24 @@
         <v>3</v>
       </c>
       <c r="AX37" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY37" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ37" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="3:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C38" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -5926,30 +6030,30 @@
         <v>3</v>
       </c>
       <c r="AW38" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX38" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY38" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ38" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="3:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C39" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -6078,30 +6182,30 @@
         <v>3</v>
       </c>
       <c r="AW39" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX39" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY39" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ39" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="3:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C40" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -6227,36 +6331,36 @@
         <v>3</v>
       </c>
       <c r="AV40" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW40" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX40" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY40" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ40" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="3:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C41" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E41" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -6379,36 +6483,36 @@
         <v>3</v>
       </c>
       <c r="AV41" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW41" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX41" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY41" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ41" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="3:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C42" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F42" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
@@ -6528,42 +6632,42 @@
         <v>3</v>
       </c>
       <c r="AU42" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV42" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW42" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX42" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY42" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ42" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="3:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E43" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F43" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H43" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
@@ -6677,48 +6781,48 @@
         <v>3</v>
       </c>
       <c r="AT43" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU43" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV43" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW43" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX43" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY43" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ43" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="3:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C44" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E44" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F44" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G44" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H44" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I44" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J44" s="1">
         <v>0</v>
@@ -6826,54 +6930,54 @@
         <v>3</v>
       </c>
       <c r="AS44" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT44" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU44" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV44" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW44" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX44" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY44" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ44" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="3:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C45" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E45" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F45" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G45" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H45" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I45" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K45" s="1">
         <v>0</v>
@@ -6975,63 +7079,63 @@
         <v>3</v>
       </c>
       <c r="AR45" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS45" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT45" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU45" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV45" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW45" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX45" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY45" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ45" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="3:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C46" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E46" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F46" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G46" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H46" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I46" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J46" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L46" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -7124,69 +7228,69 @@
         <v>3</v>
       </c>
       <c r="AQ46" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR46" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS46" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT46" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU46" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV46" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW46" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX46" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY46" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ46" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="3:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C47" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E47" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F47" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G47" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H47" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I47" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J47" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K47" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L47" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M47" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N47" s="1">
         <v>0</v>
@@ -7273,75 +7377,75 @@
         <v>3</v>
       </c>
       <c r="AP47" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ47" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR47" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS47" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT47" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU47" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV47" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW47" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX47" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY47" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ47" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="3:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L48" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M48" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N48" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O48" s="1">
         <v>2</v>
@@ -7422,81 +7526,81 @@
         <v>3</v>
       </c>
       <c r="AO48" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP48" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ48" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="3:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M49" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N49" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O49" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P49" s="1">
         <v>2</v>
@@ -7568,93 +7672,93 @@
         <v>0</v>
       </c>
       <c r="AM49" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN49" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO49" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="3:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O50" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P50" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q50" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R50" s="1">
         <v>2</v>
@@ -7714,105 +7818,105 @@
         <v>2</v>
       </c>
       <c r="AK50" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL50" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM50" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN50" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="3:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q51" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R51" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S51" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T51" s="1">
         <v>2</v>
@@ -7860,362 +7964,362 @@
         <v>2</v>
       </c>
       <c r="AI51" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ51" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK51" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL51" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="3:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S52" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T52" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U52" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V52" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W52" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X52" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y52" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z52" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA52" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB52" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC52" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD52" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE52" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF52" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG52" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH52" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI52" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="3:52" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="3:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -8229,20 +8333,23 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4:AZ53">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15875,19 +15982,19 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4:AZ53">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
